--- a/Data/Processed/Angiosperms/missing_powo_ipni/Araliaceae.xlsx
+++ b/Data/Processed/Angiosperms/missing_powo_ipni/Araliaceae.xlsx
@@ -1202,7 +1202,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1620,7 +1620,7 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -3083,7 +3083,7 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -5701,7 +5701,7 @@
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
@@ -5711,7 +5711,7 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bull. Soc. Bot. France 56(Mém. 3d): 332. 1909 </t>
+          <t>Bull. Soc. Bot. France 56(Mém. 3d): 332. 1909</t>
         </is>
       </c>
       <c r="J95" t="b">
@@ -5779,7 +5779,7 @@
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
@@ -5789,7 +5789,7 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t xml:space="preserve">Rodriguésia no. 41: 167 (-168). 1976 </t>
+          <t>Rodriguésia no. 41: 167 (-168). 1976</t>
         </is>
       </c>
       <c r="J96" t="b">
